--- a/spliced/walkingToRunning/2023-03-30_14-20-48/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-20-48/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7842272789204008</v>
+        <v>-0.09578663945773691</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.80815777686483</v>
+        <v>0.5251570686625937</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.086249991891469</v>
+        <v>-0.1342098090959656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.09578663945773691</v>
+        <v>-1.14914536605709</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5251570686625937</v>
+        <v>1.190383828204603</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1342098090959656</v>
+        <v>1.292009428791357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.14914536605709</v>
+        <v>-0.09556020285196953</v>
       </c>
       <c r="B4" t="n">
-        <v>1.190383828204603</v>
+        <v>2.255030672907248</v>
       </c>
       <c r="C4" t="n">
-        <v>1.292009428791357</v>
+        <v>2.840824183058616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.09556020285196953</v>
+        <v>-1.178172554082913</v>
       </c>
       <c r="B5" t="n">
-        <v>2.255030672907248</v>
+        <v>0.5742749858305702</v>
       </c>
       <c r="C5" t="n">
-        <v>2.840824183058616</v>
+        <v>1.787655900641919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.178172554082913</v>
+        <v>-0.017849953278261</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5742749858305702</v>
+        <v>0.6819284758058108</v>
       </c>
       <c r="C6" t="n">
-        <v>1.787655900641919</v>
+        <v>2.102289744045419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.017849953278261</v>
+        <v>-0.2933185870808658</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6819284758058108</v>
+        <v>0.3665561543570639</v>
       </c>
       <c r="C7" t="n">
-        <v>2.102289744045419</v>
+        <v>1.667365985216152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2933185870808658</v>
+        <v>-0.2884348296888843</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3665561543570639</v>
+        <v>2.223420211586359</v>
       </c>
       <c r="C8" t="n">
-        <v>1.667365985216152</v>
+        <v>1.218851031312623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.2884348296888843</v>
+        <v>0.8913533052672417</v>
       </c>
       <c r="B9" t="n">
-        <v>2.223420211586359</v>
+        <v>-1.240040208982344</v>
       </c>
       <c r="C9" t="n">
-        <v>1.218851031312623</v>
+        <v>-4.165942465049586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8913533052672417</v>
+        <v>0.04892210568783151</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.240040208982344</v>
+        <v>-2.769314762474837</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.165942465049586</v>
+        <v>-5.229776274178921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04892210568783151</v>
+        <v>1.79423694823672</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.769314762474837</v>
+        <v>0.2591471291970247</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.229776274178921</v>
+        <v>-2.070258497615964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.79423694823672</v>
+        <v>0.327913294667793</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2591471291970247</v>
+        <v>3.156352582185162</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.070258497615964</v>
+        <v>1.962593454381687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.327913294667793</v>
+        <v>-5.980557255122894</v>
       </c>
       <c r="B13" t="n">
-        <v>3.156352582185162</v>
+        <v>6.358928622830835</v>
       </c>
       <c r="C13" t="n">
-        <v>1.962593454381687</v>
+        <v>1.785391607146397</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.980557255122894</v>
+        <v>-5.223221169577771</v>
       </c>
       <c r="B14" t="n">
-        <v>6.358928622830835</v>
+        <v>5.128131230672261</v>
       </c>
       <c r="C14" t="n">
-        <v>1.785391607146397</v>
+        <v>-2.261452886793327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.223221169577771</v>
+        <v>2.6634052724078</v>
       </c>
       <c r="B15" t="n">
-        <v>5.128131230672261</v>
+        <v>-1.262619167134376</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.261452886793327</v>
+        <v>-3.230092231778134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.6634052724078</v>
+        <v>4.784483177074534</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.262619167134376</v>
+        <v>-2.167020964737715</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.230092231778134</v>
+        <v>-4.068033393454396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.784483177074534</v>
+        <v>-0.6180673411502886</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.167020964737715</v>
+        <v>-0.3114872364606223</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.068033393454396</v>
+        <v>-3.968297384787306</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6180673411502886</v>
+        <v>-6.191343093263846</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3114872364606223</v>
+        <v>-1.469820827677687</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.968297384787306</v>
+        <v>4.923526774281952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-6.191343093263846</v>
+        <v>-6.191955239300739</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.469820827677687</v>
+        <v>0.06456651607004327</v>
       </c>
       <c r="C19" t="n">
-        <v>4.923526774281952</v>
+        <v>5.562430750344849</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-6.191955239300739</v>
+        <v>7.060775899656733</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06456651607004327</v>
+        <v>-5.641036204093896</v>
       </c>
       <c r="C20" t="n">
-        <v>5.562430750344849</v>
+        <v>-6.224707568901178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.060775899656733</v>
+        <v>2.895918472953405</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.641036204093896</v>
+        <v>-3.924228730409128</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.224707568901178</v>
+        <v>1.001562802687943</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6.419859485349798</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.571867339277037</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7840970496912497</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.988556474879168</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.858240864703046</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.390691111053246</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.792354390241082</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.638935013093731</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.279087337894736</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-4.14442459281516</v>
+      </c>
+      <c r="B25" t="n">
+        <v>9.648339557186993</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.673063791604435</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.790030563511108</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9.842405033572287</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.527358793406183</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6.688283160112809</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-5.523453207983309</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2542450458244243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.419822825325905</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-5.20332591199646</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.518984390917574</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0826715539042695</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4171818759705612</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.113873891784312</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-12.35876123801507</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-14.20579128680002</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.713338022646673</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5.30543631401633</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-16.49609409092704</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.442643778335675</v>
       </c>
     </row>
   </sheetData>
